--- a/IPL/Kings XI Punjab/Mohammed Shami .xlsx
+++ b/IPL/Kings XI Punjab/Mohammed Shami .xlsx
@@ -408,10 +408,10 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -428,10 +428,10 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>

--- a/IPL/Kings XI Punjab/Mohammed Shami .xlsx
+++ b/IPL/Kings XI Punjab/Mohammed Shami .xlsx
@@ -408,10 +408,10 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
